--- a/cohort-6---excel-project-data-0f2bb09e35d24aa57a5d85c49c19079e.xlsx
+++ b/cohort-6---excel-project-data-0f2bb09e35d24aa57a5d85c49c19079e.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cohort 6\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvl14\OneDrive\Documents\001_DataAnalytics Course\Excel\Excel Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12C5E6B-5885-457C-95D0-B04BC07C01FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC78D213-7E13-46AE-BEAA-76778F3693B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7487,8 +7487,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -7554,9 +7554,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7564,10 +7564,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7579,7 +7579,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7590,6 +7590,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7872,9 +7878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32F1D4-6AC7-47DF-9C86-E6211DA403A0}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7882,7 +7890,7 @@
     <col min="2" max="2" width="76.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1867</v>
       </c>
@@ -7890,7 +7898,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1226</v>
       </c>
@@ -7898,7 +7906,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1869</v>
       </c>
@@ -7906,7 +7914,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1871</v>
       </c>
@@ -7914,7 +7922,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>1214</v>
       </c>
@@ -7922,7 +7930,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>1215</v>
       </c>
@@ -7930,7 +7938,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>1220</v>
       </c>
@@ -7938,7 +7946,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>1221</v>
       </c>
@@ -7946,7 +7954,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>1222</v>
       </c>
@@ -7954,7 +7962,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>1224</v>
       </c>
@@ -7962,7 +7970,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>1225</v>
       </c>
@@ -7970,7 +7978,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1227</v>
       </c>
@@ -7978,7 +7986,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>1228</v>
       </c>
@@ -7986,15 +7994,18 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>1229</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>1230</v>
       </c>
@@ -8002,7 +8013,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>1231</v>
       </c>
@@ -17732,11 +17743,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F0700C-3394-44F9-8079-45D29683F200}">
   <dimension ref="A1:B1211"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1182" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B1211" sqref="B1211"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -37823,16 +37837,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1072FB20-C763-42B2-9A4D-1AE26102824A}">
   <dimension ref="A1:Q304"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" style="13" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -37857,7 +37874,7 @@
       <c r="D1" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>1220</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -37910,7 +37927,7 @@
       <c r="D2" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>1235</v>
       </c>
       <c r="F2" s="2">
@@ -37963,7 +37980,7 @@
       <c r="D3" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>1238</v>
       </c>
       <c r="F3" s="2">
@@ -38016,7 +38033,7 @@
       <c r="D4" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>1240</v>
       </c>
       <c r="F4" s="2">
@@ -38069,7 +38086,7 @@
       <c r="D5" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>1242</v>
       </c>
       <c r="F5" s="2">
@@ -38122,7 +38139,7 @@
       <c r="D6" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>1244</v>
       </c>
       <c r="F6" s="2">
@@ -38175,7 +38192,7 @@
       <c r="D7" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>1246</v>
       </c>
       <c r="F7" s="2">
@@ -38228,7 +38245,7 @@
       <c r="D8" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="9" t="s">
         <v>1248</v>
       </c>
       <c r="F8" s="2">
@@ -38281,7 +38298,7 @@
       <c r="D9" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>1250</v>
       </c>
       <c r="F9" s="2">
@@ -38334,7 +38351,7 @@
       <c r="D10" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="9" t="s">
         <v>1252</v>
       </c>
       <c r="F10" s="2">
@@ -38387,7 +38404,7 @@
       <c r="D11" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="9" t="s">
         <v>1254</v>
       </c>
       <c r="F11" s="2">
@@ -38440,7 +38457,7 @@
       <c r="D12" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="9" t="s">
         <v>1256</v>
       </c>
       <c r="F12" s="2">
@@ -38493,7 +38510,7 @@
       <c r="D13" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="9" t="s">
         <v>1258</v>
       </c>
       <c r="F13" s="2">
@@ -38546,7 +38563,7 @@
       <c r="D14" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="9" t="s">
         <v>1260</v>
       </c>
       <c r="F14" s="2">
@@ -38599,7 +38616,7 @@
       <c r="D15" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="9" t="s">
         <v>1262</v>
       </c>
       <c r="F15" s="2">
@@ -38652,7 +38669,7 @@
       <c r="D16" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="9" t="s">
         <v>1264</v>
       </c>
       <c r="F16" s="2">
@@ -38705,7 +38722,7 @@
       <c r="D17" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="9" t="s">
         <v>1266</v>
       </c>
       <c r="F17" s="2">
@@ -38758,7 +38775,7 @@
       <c r="D18" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="9" t="s">
         <v>1268</v>
       </c>
       <c r="F18" s="2">
@@ -38811,7 +38828,7 @@
       <c r="D19" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="9" t="s">
         <v>1270</v>
       </c>
       <c r="F19" s="2">
@@ -38864,7 +38881,7 @@
       <c r="D20" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="9" t="s">
         <v>1272</v>
       </c>
       <c r="F20" s="2">
@@ -38917,7 +38934,7 @@
       <c r="D21" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="9" t="s">
         <v>1274</v>
       </c>
       <c r="F21" s="2">
@@ -38970,7 +38987,7 @@
       <c r="D22" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="9" t="s">
         <v>1276</v>
       </c>
       <c r="F22" s="2">
@@ -39023,7 +39040,7 @@
       <c r="D23" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="9" t="s">
         <v>1278</v>
       </c>
       <c r="F23" s="2">
@@ -39076,7 +39093,7 @@
       <c r="D24" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="9" t="s">
         <v>1280</v>
       </c>
       <c r="F24" s="2">
@@ -39129,7 +39146,7 @@
       <c r="D25" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="9" t="s">
         <v>1282</v>
       </c>
       <c r="F25" s="2">
@@ -39182,7 +39199,7 @@
       <c r="D26" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="9" t="s">
         <v>1284</v>
       </c>
       <c r="F26" s="2">
@@ -39235,7 +39252,7 @@
       <c r="D27" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="9" t="s">
         <v>1286</v>
       </c>
       <c r="F27" s="2">
@@ -39288,7 +39305,7 @@
       <c r="D28" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="9" t="s">
         <v>1288</v>
       </c>
       <c r="F28" s="2">
@@ -39341,7 +39358,7 @@
       <c r="D29" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="9" t="s">
         <v>1290</v>
       </c>
       <c r="F29" s="2">
@@ -39394,7 +39411,7 @@
       <c r="D30" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="9" t="s">
         <v>1292</v>
       </c>
       <c r="F30" s="2">
@@ -39447,7 +39464,7 @@
       <c r="D31" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="9" t="s">
         <v>1294</v>
       </c>
       <c r="F31" s="2">
@@ -39500,7 +39517,7 @@
       <c r="D32" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="9" t="s">
         <v>1296</v>
       </c>
       <c r="F32" s="2">
@@ -39553,7 +39570,7 @@
       <c r="D33" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="9" t="s">
         <v>1298</v>
       </c>
       <c r="F33" s="2">
@@ -39606,7 +39623,7 @@
       <c r="D34" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="9" t="s">
         <v>1301</v>
       </c>
       <c r="F34" s="2">
@@ -39659,7 +39676,7 @@
       <c r="D35" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="9" t="s">
         <v>1303</v>
       </c>
       <c r="F35" s="2">
@@ -39712,7 +39729,7 @@
       <c r="D36" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="9" t="s">
         <v>1305</v>
       </c>
       <c r="F36" s="2">
@@ -39765,7 +39782,7 @@
       <c r="D37" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="9" t="s">
         <v>1307</v>
       </c>
       <c r="F37" s="2">
@@ -39818,7 +39835,7 @@
       <c r="D38" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="9" t="s">
         <v>1309</v>
       </c>
       <c r="F38" s="2">
@@ -39871,7 +39888,7 @@
       <c r="D39" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="9" t="s">
         <v>1311</v>
       </c>
       <c r="F39" s="2">
@@ -39924,7 +39941,7 @@
       <c r="D40" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="9" t="s">
         <v>1313</v>
       </c>
       <c r="F40" s="2">
@@ -39977,7 +39994,7 @@
       <c r="D41" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="9" t="s">
         <v>1315</v>
       </c>
       <c r="F41" s="2">
@@ -40030,7 +40047,7 @@
       <c r="D42" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="9" t="s">
         <v>1317</v>
       </c>
       <c r="F42" s="2">
@@ -40083,7 +40100,7 @@
       <c r="D43" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="9" t="s">
         <v>1319</v>
       </c>
       <c r="F43" s="2">
@@ -40136,7 +40153,7 @@
       <c r="D44" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="9" t="s">
         <v>1321</v>
       </c>
       <c r="F44" s="2">
@@ -40189,7 +40206,7 @@
       <c r="D45" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="9" t="s">
         <v>1323</v>
       </c>
       <c r="F45" s="2">
@@ -40242,7 +40259,7 @@
       <c r="D46" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="9" t="s">
         <v>1325</v>
       </c>
       <c r="F46" s="2">
@@ -40295,7 +40312,7 @@
       <c r="D47" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="9" t="s">
         <v>1327</v>
       </c>
       <c r="F47" s="2">
@@ -40348,7 +40365,7 @@
       <c r="D48" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="9" t="s">
         <v>1329</v>
       </c>
       <c r="F48" s="2">
@@ -40401,7 +40418,7 @@
       <c r="D49" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="9" t="s">
         <v>1331</v>
       </c>
       <c r="F49" s="2">
@@ -40454,7 +40471,7 @@
       <c r="D50" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="9" t="s">
         <v>1333</v>
       </c>
       <c r="F50" s="2">
@@ -40507,7 +40524,7 @@
       <c r="D51" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="9" t="s">
         <v>1335</v>
       </c>
       <c r="F51" s="2">
@@ -40560,7 +40577,7 @@
       <c r="D52" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="9" t="s">
         <v>1337</v>
       </c>
       <c r="F52" s="2">
@@ -40613,7 +40630,7 @@
       <c r="D53" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="9" t="s">
         <v>1339</v>
       </c>
       <c r="F53" s="2">
@@ -40666,7 +40683,7 @@
       <c r="D54" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="9" t="s">
         <v>1341</v>
       </c>
       <c r="F54" s="2">
@@ -40719,7 +40736,7 @@
       <c r="D55" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="9" t="s">
         <v>1343</v>
       </c>
       <c r="F55" s="2">
@@ -40772,7 +40789,7 @@
       <c r="D56" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="9" t="s">
         <v>1345</v>
       </c>
       <c r="F56" s="2">
@@ -40825,7 +40842,7 @@
       <c r="D57" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="9" t="s">
         <v>1347</v>
       </c>
       <c r="F57" s="2">
@@ -40878,7 +40895,7 @@
       <c r="D58" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="9" t="s">
         <v>1349</v>
       </c>
       <c r="F58" s="2">
@@ -40931,7 +40948,7 @@
       <c r="D59" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="9" t="s">
         <v>1351</v>
       </c>
       <c r="F59" s="2">
@@ -40984,7 +41001,7 @@
       <c r="D60" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="9" t="s">
         <v>1282</v>
       </c>
       <c r="F60" s="2">
@@ -41037,7 +41054,7 @@
       <c r="D61" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="9" t="s">
         <v>1354</v>
       </c>
       <c r="F61" s="2">
@@ -41090,7 +41107,7 @@
       <c r="D62" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="9" t="s">
         <v>1356</v>
       </c>
       <c r="F62" s="2">
@@ -41143,7 +41160,7 @@
       <c r="D63" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="9" t="s">
         <v>1358</v>
       </c>
       <c r="F63" s="2">
@@ -41196,7 +41213,7 @@
       <c r="D64" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="9" t="s">
         <v>1360</v>
       </c>
       <c r="F64" s="2">
@@ -41249,7 +41266,7 @@
       <c r="D65" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="9" t="s">
         <v>1362</v>
       </c>
       <c r="F65" s="2">
@@ -41302,7 +41319,7 @@
       <c r="D66" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="9" t="s">
         <v>1364</v>
       </c>
       <c r="F66" s="2">
@@ -41355,7 +41372,7 @@
       <c r="D67" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="9" t="s">
         <v>1366</v>
       </c>
       <c r="F67" s="2">
@@ -41408,7 +41425,7 @@
       <c r="D68" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="9" t="s">
         <v>1369</v>
       </c>
       <c r="F68" s="2">
@@ -41461,7 +41478,7 @@
       <c r="D69" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="9" t="s">
         <v>1371</v>
       </c>
       <c r="F69" s="2">
@@ -41514,7 +41531,7 @@
       <c r="D70" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="9" t="s">
         <v>1373</v>
       </c>
       <c r="F70" s="2">
@@ -41567,7 +41584,7 @@
       <c r="D71" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="9" t="s">
         <v>1375</v>
       </c>
       <c r="F71" s="2">
@@ -41620,7 +41637,7 @@
       <c r="D72" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="9" t="s">
         <v>1377</v>
       </c>
       <c r="F72" s="2">
@@ -41673,7 +41690,7 @@
       <c r="D73" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="9" t="s">
         <v>1379</v>
       </c>
       <c r="F73" s="2">
@@ -41726,7 +41743,7 @@
       <c r="D74" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="F74" s="2">
@@ -41779,7 +41796,7 @@
       <c r="D75" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="9" t="s">
         <v>1383</v>
       </c>
       <c r="F75" s="2">
@@ -41832,7 +41849,7 @@
       <c r="D76" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="9" t="s">
         <v>1385</v>
       </c>
       <c r="F76" s="2">
@@ -41885,7 +41902,7 @@
       <c r="D77" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="9" t="s">
         <v>1387</v>
       </c>
       <c r="F77" s="2">
@@ -41938,7 +41955,7 @@
       <c r="D78" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="9" t="s">
         <v>1389</v>
       </c>
       <c r="F78" s="2">
@@ -41991,7 +42008,7 @@
       <c r="D79" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="9" t="s">
         <v>1391</v>
       </c>
       <c r="F79" s="2">
@@ -42044,7 +42061,7 @@
       <c r="D80" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="9" t="s">
         <v>1393</v>
       </c>
       <c r="F80" s="2">
@@ -42097,7 +42114,7 @@
       <c r="D81" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="9" t="s">
         <v>1395</v>
       </c>
       <c r="F81" s="2">
@@ -42150,7 +42167,7 @@
       <c r="D82" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="9" t="s">
         <v>1397</v>
       </c>
       <c r="F82" s="2">
@@ -42203,7 +42220,7 @@
       <c r="D83" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="9" t="s">
         <v>1399</v>
       </c>
       <c r="F83" s="2">
@@ -42256,7 +42273,7 @@
       <c r="D84" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="9" t="s">
         <v>1401</v>
       </c>
       <c r="F84" s="2">
@@ -42309,7 +42326,7 @@
       <c r="D85" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="9" t="s">
         <v>1403</v>
       </c>
       <c r="F85" s="2">
@@ -42362,7 +42379,7 @@
       <c r="D86" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="9" t="s">
         <v>1405</v>
       </c>
       <c r="F86" s="2">
@@ -42415,7 +42432,7 @@
       <c r="D87" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="9" t="s">
         <v>1407</v>
       </c>
       <c r="F87" s="2">
@@ -42468,7 +42485,7 @@
       <c r="D88" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="9" t="s">
         <v>1409</v>
       </c>
       <c r="F88" s="2">
@@ -42521,7 +42538,7 @@
       <c r="D89" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="9" t="s">
         <v>1411</v>
       </c>
       <c r="F89" s="2">
@@ -42574,7 +42591,7 @@
       <c r="D90" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="9" t="s">
         <v>1413</v>
       </c>
       <c r="F90" s="2">
@@ -42627,7 +42644,7 @@
       <c r="D91" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="9" t="s">
         <v>1413</v>
       </c>
       <c r="F91" s="2">
@@ -42680,7 +42697,7 @@
       <c r="D92" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="9" t="s">
         <v>1416</v>
       </c>
       <c r="F92" s="2">
@@ -42733,7 +42750,7 @@
       <c r="D93" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="9" t="s">
         <v>1418</v>
       </c>
       <c r="F93" s="2">
@@ -42786,7 +42803,7 @@
       <c r="D94" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="9" t="s">
         <v>1420</v>
       </c>
       <c r="F94" s="2">
@@ -42839,7 +42856,7 @@
       <c r="D95" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="9" t="s">
         <v>1422</v>
       </c>
       <c r="F95" s="2">
@@ -42892,7 +42909,7 @@
       <c r="D96" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="9" t="s">
         <v>1424</v>
       </c>
       <c r="F96" s="2">
@@ -42945,7 +42962,7 @@
       <c r="D97" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="9" t="s">
         <v>1426</v>
       </c>
       <c r="F97" s="2">
@@ -42998,7 +43015,7 @@
       <c r="D98" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="9" t="s">
         <v>1428</v>
       </c>
       <c r="F98" s="2">
@@ -43051,7 +43068,7 @@
       <c r="D99" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="9" t="s">
         <v>1430</v>
       </c>
       <c r="F99" s="2">
@@ -43104,7 +43121,7 @@
       <c r="D100" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="9" t="s">
         <v>1432</v>
       </c>
       <c r="F100" s="2">
@@ -43157,7 +43174,7 @@
       <c r="D101" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="9" t="s">
         <v>1434</v>
       </c>
       <c r="F101" s="2">
@@ -43210,7 +43227,7 @@
       <c r="D102" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="9" t="s">
         <v>1436</v>
       </c>
       <c r="F102" s="2">
@@ -43263,7 +43280,7 @@
       <c r="D103" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="9" t="s">
         <v>1438</v>
       </c>
       <c r="F103" s="2">
@@ -43316,7 +43333,7 @@
       <c r="D104" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="9" t="s">
         <v>1440</v>
       </c>
       <c r="F104" s="2">
@@ -43369,7 +43386,7 @@
       <c r="D105" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="9" t="s">
         <v>1442</v>
       </c>
       <c r="F105" s="2">
@@ -43422,7 +43439,7 @@
       <c r="D106" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="9" t="s">
         <v>1444</v>
       </c>
       <c r="F106" s="2">
@@ -43475,7 +43492,7 @@
       <c r="D107" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="9" t="s">
         <v>1446</v>
       </c>
       <c r="F107" s="2">
@@ -43528,7 +43545,7 @@
       <c r="D108" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="9" t="s">
         <v>1448</v>
       </c>
       <c r="F108" s="2">
@@ -43581,7 +43598,7 @@
       <c r="D109" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="9" t="s">
         <v>1450</v>
       </c>
       <c r="F109" s="2">
@@ -43634,7 +43651,7 @@
       <c r="D110" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="9" t="s">
         <v>1452</v>
       </c>
       <c r="F110" s="2">
@@ -43687,7 +43704,7 @@
       <c r="D111" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="9" t="s">
         <v>1454</v>
       </c>
       <c r="F111" s="2">
@@ -43740,7 +43757,7 @@
       <c r="D112" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="9" t="s">
         <v>1456</v>
       </c>
       <c r="F112" s="2">
@@ -43793,7 +43810,7 @@
       <c r="D113" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="9" t="s">
         <v>1458</v>
       </c>
       <c r="F113" s="2">
@@ -43846,7 +43863,7 @@
       <c r="D114" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="9" t="s">
         <v>1460</v>
       </c>
       <c r="F114" s="2">
@@ -43899,7 +43916,7 @@
       <c r="D115" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="9" t="s">
         <v>1462</v>
       </c>
       <c r="F115" s="2">
@@ -43952,7 +43969,7 @@
       <c r="D116" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="9" t="s">
         <v>1464</v>
       </c>
       <c r="F116" s="2">
@@ -44005,7 +44022,7 @@
       <c r="D117" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="9" t="s">
         <v>1466</v>
       </c>
       <c r="F117" s="2">
@@ -44058,7 +44075,7 @@
       <c r="D118" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="9" t="s">
         <v>1468</v>
       </c>
       <c r="F118" s="2">
@@ -44111,7 +44128,7 @@
       <c r="D119" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="9" t="s">
         <v>1470</v>
       </c>
       <c r="F119" s="2">
@@ -44164,7 +44181,7 @@
       <c r="D120" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="9" t="s">
         <v>1472</v>
       </c>
       <c r="F120" s="2">
@@ -44217,7 +44234,7 @@
       <c r="D121" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="9" t="s">
         <v>1474</v>
       </c>
       <c r="F121" s="2">
@@ -44270,7 +44287,7 @@
       <c r="D122" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="9" t="s">
         <v>1476</v>
       </c>
       <c r="F122" s="2">
@@ -44323,7 +44340,7 @@
       <c r="D123" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="9" t="s">
         <v>1478</v>
       </c>
       <c r="F123" s="2">
@@ -44376,7 +44393,7 @@
       <c r="D124" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="9" t="s">
         <v>1480</v>
       </c>
       <c r="F124" s="2">
@@ -44429,7 +44446,7 @@
       <c r="D125" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="9" t="s">
         <v>1482</v>
       </c>
       <c r="F125" s="2">
@@ -44482,7 +44499,7 @@
       <c r="D126" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="9" t="s">
         <v>1484</v>
       </c>
       <c r="F126" s="2">
@@ -44535,7 +44552,7 @@
       <c r="D127" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="9" t="s">
         <v>1486</v>
       </c>
       <c r="F127" s="2">
@@ -44588,7 +44605,7 @@
       <c r="D128" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="9" t="s">
         <v>1488</v>
       </c>
       <c r="F128" s="2">
@@ -44641,7 +44658,7 @@
       <c r="D129" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="9" t="s">
         <v>1490</v>
       </c>
       <c r="F129" s="2">
@@ -44694,7 +44711,7 @@
       <c r="D130" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="9" t="s">
         <v>1492</v>
       </c>
       <c r="F130" s="2">
@@ -44747,7 +44764,7 @@
       <c r="D131" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="9" t="s">
         <v>1494</v>
       </c>
       <c r="F131" s="2">
@@ -44800,7 +44817,7 @@
       <c r="D132" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="9" t="s">
         <v>1496</v>
       </c>
       <c r="F132" s="2">
@@ -44853,7 +44870,7 @@
       <c r="D133" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="9" t="s">
         <v>1498</v>
       </c>
       <c r="F133" s="2">
@@ -44906,7 +44923,7 @@
       <c r="D134" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="9" t="s">
         <v>1500</v>
       </c>
       <c r="F134" s="2">
@@ -44959,7 +44976,7 @@
       <c r="D135" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="9" t="s">
         <v>1502</v>
       </c>
       <c r="F135" s="2">
@@ -45012,7 +45029,7 @@
       <c r="D136" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="9" t="s">
         <v>1504</v>
       </c>
       <c r="F136" s="2">
@@ -45065,7 +45082,7 @@
       <c r="D137" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="9" t="s">
         <v>1506</v>
       </c>
       <c r="F137" s="2">
@@ -45118,7 +45135,7 @@
       <c r="D138" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="9" t="s">
         <v>1508</v>
       </c>
       <c r="F138" s="2">
@@ -45171,7 +45188,7 @@
       <c r="D139" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="9" t="s">
         <v>1510</v>
       </c>
       <c r="F139" s="2">
@@ -45224,7 +45241,7 @@
       <c r="D140" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="9" t="s">
         <v>1512</v>
       </c>
       <c r="F140" s="2">
@@ -45277,7 +45294,7 @@
       <c r="D141" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="9" t="s">
         <v>1514</v>
       </c>
       <c r="F141" s="2">
@@ -45330,7 +45347,7 @@
       <c r="D142" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="9" t="s">
         <v>1516</v>
       </c>
       <c r="F142" s="2">
@@ -45383,7 +45400,7 @@
       <c r="D143" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="9" t="s">
         <v>1518</v>
       </c>
       <c r="F143" s="2">
@@ -45436,7 +45453,7 @@
       <c r="D144" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="9" t="s">
         <v>1520</v>
       </c>
       <c r="F144" s="2">
@@ -45489,7 +45506,7 @@
       <c r="D145" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="9" t="s">
         <v>1522</v>
       </c>
       <c r="F145" s="2">
@@ -45542,7 +45559,7 @@
       <c r="D146" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="9" t="s">
         <v>1524</v>
       </c>
       <c r="F146" s="2">
@@ -45595,7 +45612,7 @@
       <c r="D147" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="9" t="s">
         <v>1526</v>
       </c>
       <c r="F147" s="2">
@@ -45648,7 +45665,7 @@
       <c r="D148" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="9" t="s">
         <v>1528</v>
       </c>
       <c r="F148" s="2">
@@ -45701,7 +45718,7 @@
       <c r="D149" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="9" t="s">
         <v>1530</v>
       </c>
       <c r="F149" s="2">
@@ -45754,7 +45771,7 @@
       <c r="D150" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="9" t="s">
         <v>1532</v>
       </c>
       <c r="F150" s="2">
@@ -45807,7 +45824,7 @@
       <c r="D151" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="9" t="s">
         <v>1534</v>
       </c>
       <c r="F151" s="2">
@@ -45860,7 +45877,7 @@
       <c r="D152" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="9" t="s">
         <v>1536</v>
       </c>
       <c r="F152" s="2">
@@ -45913,7 +45930,7 @@
       <c r="D153" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="9" t="s">
         <v>1538</v>
       </c>
       <c r="F153" s="2">
@@ -45966,7 +45983,7 @@
       <c r="D154" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="9" t="s">
         <v>1540</v>
       </c>
       <c r="F154" s="2">
@@ -46019,7 +46036,7 @@
       <c r="D155" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="9" t="s">
         <v>1542</v>
       </c>
       <c r="F155" s="2">
@@ -46072,7 +46089,7 @@
       <c r="D156" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="9" t="s">
         <v>1544</v>
       </c>
       <c r="F156" s="2">
@@ -46125,7 +46142,7 @@
       <c r="D157" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="9" t="s">
         <v>1546</v>
       </c>
       <c r="F157" s="2">
@@ -46178,7 +46195,7 @@
       <c r="D158" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="9" t="s">
         <v>1548</v>
       </c>
       <c r="F158" s="2">
@@ -46231,7 +46248,7 @@
       <c r="D159" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="9" t="s">
         <v>1550</v>
       </c>
       <c r="F159" s="2">
@@ -46284,7 +46301,7 @@
       <c r="D160" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="9" t="s">
         <v>1552</v>
       </c>
       <c r="F160" s="2">
@@ -46337,7 +46354,7 @@
       <c r="D161" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="9" t="s">
         <v>1554</v>
       </c>
       <c r="F161" s="2">
@@ -46390,7 +46407,7 @@
       <c r="D162" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="9" t="s">
         <v>1556</v>
       </c>
       <c r="F162" s="2">
@@ -46443,7 +46460,7 @@
       <c r="D163" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="9" t="s">
         <v>1558</v>
       </c>
       <c r="F163" s="2">
@@ -46496,7 +46513,7 @@
       <c r="D164" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="9" t="s">
         <v>1560</v>
       </c>
       <c r="F164" s="2">
@@ -46549,7 +46566,7 @@
       <c r="D165" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="9" t="s">
         <v>1562</v>
       </c>
       <c r="F165" s="2">
@@ -46602,7 +46619,7 @@
       <c r="D166" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="9" t="s">
         <v>1564</v>
       </c>
       <c r="F166" s="2">
@@ -46655,7 +46672,7 @@
       <c r="D167" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" s="9" t="s">
         <v>1566</v>
       </c>
       <c r="F167" s="2">
@@ -46708,7 +46725,7 @@
       <c r="D168" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="9" t="s">
         <v>1568</v>
       </c>
       <c r="F168" s="2">
@@ -46761,7 +46778,7 @@
       <c r="D169" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="9" t="s">
         <v>1570</v>
       </c>
       <c r="F169" s="2">
@@ -46814,7 +46831,7 @@
       <c r="D170" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" s="9" t="s">
         <v>1572</v>
       </c>
       <c r="F170" s="2">
@@ -46867,7 +46884,7 @@
       <c r="D171" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="9" t="s">
         <v>1574</v>
       </c>
       <c r="F171" s="2">
@@ -46920,7 +46937,7 @@
       <c r="D172" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="9" t="s">
         <v>1576</v>
       </c>
       <c r="F172" s="2">
@@ -46973,7 +46990,7 @@
       <c r="D173" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" s="9" t="s">
         <v>1578</v>
       </c>
       <c r="F173" s="2">
@@ -47026,7 +47043,7 @@
       <c r="D174" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="9" t="s">
         <v>1580</v>
       </c>
       <c r="F174" s="2">
@@ -47079,7 +47096,7 @@
       <c r="D175" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="9" t="s">
         <v>1583</v>
       </c>
       <c r="F175" s="2">
@@ -47130,7 +47147,7 @@
       <c r="D176" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="E176" s="9" t="s">
         <v>1585</v>
       </c>
       <c r="F176" s="2">
@@ -47183,7 +47200,7 @@
       <c r="D177" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" s="9" t="s">
         <v>1587</v>
       </c>
       <c r="F177" s="2">
@@ -47236,7 +47253,7 @@
       <c r="D178" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" s="9" t="s">
         <v>1589</v>
       </c>
       <c r="F178" s="2">
@@ -47289,7 +47306,7 @@
       <c r="D179" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E179" s="9" t="s">
         <v>1591</v>
       </c>
       <c r="F179" s="2">
@@ -47342,7 +47359,7 @@
       <c r="D180" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" s="9" t="s">
         <v>1593</v>
       </c>
       <c r="F180" s="2">
@@ -47395,7 +47412,7 @@
       <c r="D181" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="9" t="s">
         <v>1595</v>
       </c>
       <c r="F181" s="2">
@@ -47448,7 +47465,7 @@
       <c r="D182" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E182" s="9" t="s">
         <v>1597</v>
       </c>
       <c r="F182" s="2">
@@ -47501,7 +47518,7 @@
       <c r="D183" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" s="9" t="s">
         <v>1599</v>
       </c>
       <c r="F183" s="2">
@@ -47554,7 +47571,7 @@
       <c r="D184" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E184" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="F184" s="2">
@@ -47607,7 +47624,7 @@
       <c r="D185" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="E185" s="9" t="s">
         <v>1603</v>
       </c>
       <c r="F185" s="2">
@@ -47660,7 +47677,7 @@
       <c r="D186" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E186" s="9" t="s">
         <v>1605</v>
       </c>
       <c r="F186" s="2">
@@ -47713,7 +47730,7 @@
       <c r="D187" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" s="9" t="s">
         <v>1607</v>
       </c>
       <c r="F187" s="2">
@@ -47766,7 +47783,7 @@
       <c r="D188" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" s="9" t="s">
         <v>1609</v>
       </c>
       <c r="F188" s="2">
@@ -47819,7 +47836,7 @@
       <c r="D189" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" s="9" t="s">
         <v>1611</v>
       </c>
       <c r="F189" s="2">
@@ -47872,7 +47889,7 @@
       <c r="D190" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" s="9" t="s">
         <v>1613</v>
       </c>
       <c r="F190" s="2">
@@ -47925,7 +47942,7 @@
       <c r="D191" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" s="9" t="s">
         <v>1615</v>
       </c>
       <c r="F191" s="2">
@@ -47978,7 +47995,7 @@
       <c r="D192" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E192" s="9" t="s">
         <v>1617</v>
       </c>
       <c r="F192" s="2">
@@ -48031,7 +48048,7 @@
       <c r="D193" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E193" s="9" t="s">
         <v>1619</v>
       </c>
       <c r="F193" s="2">
@@ -48084,7 +48101,7 @@
       <c r="D194" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="E194" s="9" t="s">
         <v>1621</v>
       </c>
       <c r="F194" s="2">
@@ -48137,7 +48154,7 @@
       <c r="D195" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" s="9" t="s">
         <v>1623</v>
       </c>
       <c r="F195" s="2">
@@ -48190,7 +48207,7 @@
       <c r="D196" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="9" t="s">
         <v>1625</v>
       </c>
       <c r="F196" s="2">
@@ -48243,7 +48260,7 @@
       <c r="D197" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E197" s="9" t="s">
         <v>1627</v>
       </c>
       <c r="F197" s="2">
@@ -48296,7 +48313,7 @@
       <c r="D198" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" s="9" t="s">
         <v>1629</v>
       </c>
       <c r="F198" s="2">
@@ -48349,7 +48366,7 @@
       <c r="D199" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" s="9" t="s">
         <v>1631</v>
       </c>
       <c r="F199" s="2">
@@ -48402,7 +48419,7 @@
       <c r="D200" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" s="9" t="s">
         <v>1633</v>
       </c>
       <c r="F200" s="2">
@@ -48455,7 +48472,7 @@
       <c r="D201" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E201" s="9" t="s">
         <v>1635</v>
       </c>
       <c r="F201" s="2">
@@ -48508,7 +48525,7 @@
       <c r="D202" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" s="9" t="s">
         <v>1637</v>
       </c>
       <c r="F202" s="2">
@@ -48561,7 +48578,7 @@
       <c r="D203" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" s="9" t="s">
         <v>1639</v>
       </c>
       <c r="F203" s="2">
@@ -48614,7 +48631,7 @@
       <c r="D204" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E204" s="9" t="s">
         <v>1641</v>
       </c>
       <c r="F204" s="2">
@@ -48667,7 +48684,7 @@
       <c r="D205" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="E205" s="9" t="s">
         <v>1643</v>
       </c>
       <c r="F205" s="2">
@@ -48720,7 +48737,7 @@
       <c r="D206" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" s="9" t="s">
         <v>1645</v>
       </c>
       <c r="F206" s="2">
@@ -48773,7 +48790,7 @@
       <c r="D207" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" s="9" t="s">
         <v>1647</v>
       </c>
       <c r="F207" s="2">
@@ -48826,7 +48843,7 @@
       <c r="D208" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="9" t="s">
         <v>1649</v>
       </c>
       <c r="F208" s="2">
@@ -48879,7 +48896,7 @@
       <c r="D209" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" s="9" t="s">
         <v>1651</v>
       </c>
       <c r="F209" s="2">
@@ -48932,7 +48949,7 @@
       <c r="D210" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E210" s="9" t="s">
         <v>1653</v>
       </c>
       <c r="F210" s="2">
@@ -48985,7 +49002,7 @@
       <c r="D211" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E211" s="9" t="s">
         <v>1655</v>
       </c>
       <c r="F211" s="2">
@@ -49038,7 +49055,7 @@
       <c r="D212" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="9" t="s">
         <v>1657</v>
       </c>
       <c r="F212" s="2">
@@ -49091,7 +49108,7 @@
       <c r="D213" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E213" s="9" t="s">
         <v>1659</v>
       </c>
       <c r="F213" s="2">
@@ -49144,7 +49161,7 @@
       <c r="D214" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" s="9" t="s">
         <v>1661</v>
       </c>
       <c r="F214" s="2">
@@ -49197,7 +49214,7 @@
       <c r="D215" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" s="9" t="s">
         <v>1663</v>
       </c>
       <c r="F215" s="2">
@@ -49250,7 +49267,7 @@
       <c r="D216" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" s="9" t="s">
         <v>1665</v>
       </c>
       <c r="F216" s="2">
@@ -49303,7 +49320,7 @@
       <c r="D217" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E217" s="9" t="s">
         <v>1667</v>
       </c>
       <c r="F217" s="2">
@@ -49356,7 +49373,7 @@
       <c r="D218" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E218" s="9" t="s">
         <v>1669</v>
       </c>
       <c r="F218" s="2">
@@ -49409,7 +49426,7 @@
       <c r="D219" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E219" s="9" t="s">
         <v>1671</v>
       </c>
       <c r="F219" s="2">
@@ -49462,7 +49479,7 @@
       <c r="D220" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E220" s="9" t="s">
         <v>1673</v>
       </c>
       <c r="F220" s="2">
@@ -49515,7 +49532,7 @@
       <c r="D221" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E221" s="9" t="s">
         <v>1675</v>
       </c>
       <c r="F221" s="2">
@@ -49568,7 +49585,7 @@
       <c r="D222" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" s="9" t="s">
         <v>1677</v>
       </c>
       <c r="F222" s="2">
@@ -49621,7 +49638,7 @@
       <c r="D223" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" s="9" t="s">
         <v>1679</v>
       </c>
       <c r="F223" s="2">
@@ -49674,7 +49691,7 @@
       <c r="D224" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" s="9" t="s">
         <v>1681</v>
       </c>
       <c r="F224" s="2">
@@ -49727,7 +49744,7 @@
       <c r="D225" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E225" s="9" t="s">
         <v>1683</v>
       </c>
       <c r="F225" s="2">
@@ -49780,7 +49797,7 @@
       <c r="D226" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E226" s="9" t="s">
         <v>1685</v>
       </c>
       <c r="F226" s="2">
@@ -49833,7 +49850,7 @@
       <c r="D227" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E227" s="9" t="s">
         <v>1687</v>
       </c>
       <c r="F227" s="2">
@@ -49886,7 +49903,7 @@
       <c r="D228" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E228" s="9" t="s">
         <v>1689</v>
       </c>
       <c r="F228" s="2">
@@ -49939,7 +49956,7 @@
       <c r="D229" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E229" s="9" t="s">
         <v>1691</v>
       </c>
       <c r="F229" s="2">
@@ -49992,7 +50009,7 @@
       <c r="D230" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E230" s="9" t="s">
         <v>1693</v>
       </c>
       <c r="F230" s="2">
@@ -50045,7 +50062,7 @@
       <c r="D231" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="E231" s="9" t="s">
         <v>1695</v>
       </c>
       <c r="F231" s="2">
@@ -50098,7 +50115,7 @@
       <c r="D232" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" s="9" t="s">
         <v>1697</v>
       </c>
       <c r="F232" s="2">
@@ -50151,7 +50168,7 @@
       <c r="D233" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" s="9" t="s">
         <v>1699</v>
       </c>
       <c r="F233" s="2">
@@ -50204,7 +50221,7 @@
       <c r="D234" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E234" s="9" t="s">
         <v>1701</v>
       </c>
       <c r="F234" s="2">
@@ -50257,7 +50274,7 @@
       <c r="D235" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E235" s="2" t="s">
+      <c r="E235" s="9" t="s">
         <v>1703</v>
       </c>
       <c r="F235" s="2">
@@ -50310,7 +50327,7 @@
       <c r="D236" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E236" s="2" t="s">
+      <c r="E236" s="9" t="s">
         <v>1705</v>
       </c>
       <c r="F236" s="2">
@@ -50363,7 +50380,7 @@
       <c r="D237" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="E237" s="9" t="s">
         <v>1707</v>
       </c>
       <c r="F237" s="2">
@@ -50416,7 +50433,7 @@
       <c r="D238" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E238" s="9" t="s">
         <v>1709</v>
       </c>
       <c r="F238" s="2">
@@ -50469,7 +50486,7 @@
       <c r="D239" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="E239" s="9" t="s">
         <v>1711</v>
       </c>
       <c r="F239" s="2">
@@ -50522,7 +50539,7 @@
       <c r="D240" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="E240" s="9" t="s">
         <v>1713</v>
       </c>
       <c r="F240" s="2">
@@ -50575,7 +50592,7 @@
       <c r="D241" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E241" s="9" t="s">
         <v>1715</v>
       </c>
       <c r="F241" s="2">
@@ -50628,7 +50645,7 @@
       <c r="D242" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="E242" s="9" t="s">
         <v>1717</v>
       </c>
       <c r="F242" s="2">
@@ -50681,7 +50698,7 @@
       <c r="D243" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E243" s="2" t="s">
+      <c r="E243" s="9" t="s">
         <v>1719</v>
       </c>
       <c r="F243" s="2">
@@ -50734,7 +50751,7 @@
       <c r="D244" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="E244" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="F244" s="2">
@@ -50787,7 +50804,7 @@
       <c r="D245" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E245" s="2" t="s">
+      <c r="E245" s="9" t="s">
         <v>1723</v>
       </c>
       <c r="F245" s="2">
@@ -50840,7 +50857,7 @@
       <c r="D246" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="E246" s="9" t="s">
         <v>1725</v>
       </c>
       <c r="F246" s="2">
@@ -50893,7 +50910,7 @@
       <c r="D247" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="E247" s="9" t="s">
         <v>1727</v>
       </c>
       <c r="F247" s="2">
@@ -50946,7 +50963,7 @@
       <c r="D248" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E248" s="2" t="s">
+      <c r="E248" s="9" t="s">
         <v>1729</v>
       </c>
       <c r="F248" s="2">
@@ -50999,7 +51016,7 @@
       <c r="D249" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E249" s="2" t="s">
+      <c r="E249" s="9" t="s">
         <v>1731</v>
       </c>
       <c r="F249" s="2">
@@ -51052,7 +51069,7 @@
       <c r="D250" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E250" s="2" t="s">
+      <c r="E250" s="9" t="s">
         <v>1733</v>
       </c>
       <c r="F250" s="2">
@@ -51105,7 +51122,7 @@
       <c r="D251" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E251" s="2" t="s">
+      <c r="E251" s="9" t="s">
         <v>1733</v>
       </c>
       <c r="F251" s="2">
@@ -51156,7 +51173,7 @@
       <c r="D252" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E252" s="2" t="s">
+      <c r="E252" s="9" t="s">
         <v>1735</v>
       </c>
       <c r="F252" s="2">
@@ -51209,7 +51226,7 @@
       <c r="D253" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E253" s="2" t="s">
+      <c r="E253" s="9" t="s">
         <v>1735</v>
       </c>
       <c r="F253" s="2">
@@ -51260,7 +51277,7 @@
       <c r="D254" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E254" s="2" t="s">
+      <c r="E254" s="9" t="s">
         <v>1737</v>
       </c>
       <c r="F254" s="2">
@@ -51313,7 +51330,7 @@
       <c r="D255" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E255" s="2" t="s">
+      <c r="E255" s="9" t="s">
         <v>1737</v>
       </c>
       <c r="F255" s="2">
@@ -51364,7 +51381,7 @@
       <c r="D256" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E256" s="2" t="s">
+      <c r="E256" s="9" t="s">
         <v>1739</v>
       </c>
       <c r="F256" s="2">
@@ -51417,7 +51434,7 @@
       <c r="D257" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E257" s="2" t="s">
+      <c r="E257" s="9" t="s">
         <v>1739</v>
       </c>
       <c r="F257" s="2">
@@ -51468,7 +51485,7 @@
       <c r="D258" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E258" s="2" t="s">
+      <c r="E258" s="9" t="s">
         <v>1741</v>
       </c>
       <c r="F258" s="2">
@@ -51521,7 +51538,7 @@
       <c r="D259" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E259" s="2" t="s">
+      <c r="E259" s="9" t="s">
         <v>1754</v>
       </c>
       <c r="F259" s="2">
@@ -51572,7 +51589,7 @@
       <c r="D260" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E260" s="2" t="s">
+      <c r="E260" s="9" t="s">
         <v>1741</v>
       </c>
       <c r="F260" s="2">
@@ -51625,7 +51642,7 @@
       <c r="D261" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E261" s="2" t="s">
+      <c r="E261" s="9" t="s">
         <v>1741</v>
       </c>
       <c r="F261" s="2">
@@ -51676,7 +51693,7 @@
       <c r="D262" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E262" s="9" t="s">
         <v>1744</v>
       </c>
       <c r="F262" s="2">
@@ -51729,7 +51746,7 @@
       <c r="D263" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E263" s="2" t="s">
+      <c r="E263" s="9" t="s">
         <v>1744</v>
       </c>
       <c r="F263" s="2">
@@ -51780,7 +51797,7 @@
       <c r="D264" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E264" s="2" t="s">
+      <c r="E264" s="9" t="s">
         <v>1770</v>
       </c>
       <c r="F264" s="2">
@@ -51831,7 +51848,7 @@
       <c r="D265" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E265" s="2" t="s">
+      <c r="E265" s="9" t="s">
         <v>1768</v>
       </c>
       <c r="F265" s="2">
@@ -51882,7 +51899,7 @@
       <c r="D266" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E266" s="2" t="s">
+      <c r="E266" s="9" t="s">
         <v>1766</v>
       </c>
       <c r="F266" s="2">
@@ -51933,7 +51950,7 @@
       <c r="D267" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E267" s="2" t="s">
+      <c r="E267" s="9" t="s">
         <v>1764</v>
       </c>
       <c r="F267" s="2">
@@ -51984,7 +52001,7 @@
       <c r="D268" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E268" s="2" t="s">
+      <c r="E268" s="9" t="s">
         <v>1762</v>
       </c>
       <c r="F268" s="2">
@@ -52035,7 +52052,7 @@
       <c r="D269" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E269" s="2" t="s">
+      <c r="E269" s="9" t="s">
         <v>1760</v>
       </c>
       <c r="F269" s="2">
@@ -52086,7 +52103,7 @@
       <c r="D270" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E270" s="2" t="s">
+      <c r="E270" s="9" t="s">
         <v>1758</v>
       </c>
       <c r="F270" s="2">
@@ -52137,7 +52154,7 @@
       <c r="D271" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E271" s="2" t="s">
+      <c r="E271" s="9" t="s">
         <v>1756</v>
       </c>
       <c r="F271" s="2">
@@ -52188,7 +52205,7 @@
       <c r="D272" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E272" s="2" t="s">
+      <c r="E272" s="9" t="s">
         <v>1741</v>
       </c>
       <c r="F272" s="2">
@@ -52239,7 +52256,7 @@
       <c r="D273" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E273" s="2" t="s">
+      <c r="E273" s="9" t="s">
         <v>1752</v>
       </c>
       <c r="F273" s="2">
@@ -52290,7 +52307,7 @@
       <c r="D274" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E274" s="2" t="s">
+      <c r="E274" s="9" t="s">
         <v>1750</v>
       </c>
       <c r="F274" s="2">
@@ -52341,7 +52358,7 @@
       <c r="D275" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E275" s="2" t="s">
+      <c r="E275" s="9" t="s">
         <v>1748</v>
       </c>
       <c r="F275" s="2">
@@ -52392,7 +52409,7 @@
       <c r="D276" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E276" s="2" t="s">
+      <c r="E276" s="9" t="s">
         <v>1746</v>
       </c>
       <c r="F276" s="2">
@@ -52443,7 +52460,7 @@
       <c r="D277" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E277" s="2" t="s">
+      <c r="E277" s="9" t="s">
         <v>1772</v>
       </c>
       <c r="F277" s="2">
@@ -52494,7 +52511,7 @@
       <c r="D278" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E278" s="2" t="s">
+      <c r="E278" s="9" t="s">
         <v>1802</v>
       </c>
       <c r="F278" s="2">
@@ -52545,7 +52562,7 @@
       <c r="D279" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E279" s="2" t="s">
+      <c r="E279" s="9" t="s">
         <v>1786</v>
       </c>
       <c r="F279" s="2">
@@ -52596,7 +52613,7 @@
       <c r="D280" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E280" s="2" t="s">
+      <c r="E280" s="9" t="s">
         <v>1776</v>
       </c>
       <c r="F280" s="2">
@@ -52647,7 +52664,7 @@
       <c r="D281" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E281" s="2" t="s">
+      <c r="E281" s="9" t="s">
         <v>1778</v>
       </c>
       <c r="F281" s="2">
@@ -52698,7 +52715,7 @@
       <c r="D282" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E282" s="2" t="s">
+      <c r="E282" s="9" t="s">
         <v>1780</v>
       </c>
       <c r="F282" s="2">
@@ -52749,7 +52766,7 @@
       <c r="D283" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E283" s="2" t="s">
+      <c r="E283" s="9" t="s">
         <v>1782</v>
       </c>
       <c r="F283" s="2">
@@ -52800,7 +52817,7 @@
       <c r="D284" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E284" s="2" t="s">
+      <c r="E284" s="9" t="s">
         <v>1784</v>
       </c>
       <c r="F284" s="2">
@@ -52851,7 +52868,7 @@
       <c r="D285" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E285" s="2" t="s">
+      <c r="E285" s="9" t="s">
         <v>1826</v>
       </c>
       <c r="F285" s="2">
@@ -52902,7 +52919,7 @@
       <c r="D286" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E286" s="2" t="s">
+      <c r="E286" s="9" t="s">
         <v>1788</v>
       </c>
       <c r="F286" s="2">
@@ -52953,7 +52970,7 @@
       <c r="D287" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E287" s="2" t="s">
+      <c r="E287" s="9" t="s">
         <v>1790</v>
       </c>
       <c r="F287" s="2">
@@ -53004,7 +53021,7 @@
       <c r="D288" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E288" s="2" t="s">
+      <c r="E288" s="9" t="s">
         <v>1792</v>
       </c>
       <c r="F288" s="2">
@@ -53055,7 +53072,7 @@
       <c r="D289" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E289" s="2" t="s">
+      <c r="E289" s="9" t="s">
         <v>1794</v>
       </c>
       <c r="F289" s="2">
@@ -53106,7 +53123,7 @@
       <c r="D290" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E290" s="2" t="s">
+      <c r="E290" s="9" t="s">
         <v>1796</v>
       </c>
       <c r="F290" s="2">
@@ -53157,7 +53174,7 @@
       <c r="D291" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E291" s="2" t="s">
+      <c r="E291" s="9" t="s">
         <v>1798</v>
       </c>
       <c r="F291" s="2">
@@ -53208,7 +53225,7 @@
       <c r="D292" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E292" s="2" t="s">
+      <c r="E292" s="9" t="s">
         <v>1804</v>
       </c>
       <c r="F292" s="2">
@@ -53259,7 +53276,7 @@
       <c r="D293" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E293" s="2" t="s">
+      <c r="E293" s="9" t="s">
         <v>1806</v>
       </c>
       <c r="F293" s="2">
@@ -53310,7 +53327,7 @@
       <c r="D294" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E294" s="2" t="s">
+      <c r="E294" s="9" t="s">
         <v>1808</v>
       </c>
       <c r="F294" s="2">
@@ -53361,7 +53378,7 @@
       <c r="D295" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E295" s="2" t="s">
+      <c r="E295" s="9" t="s">
         <v>1810</v>
       </c>
       <c r="F295" s="2">
@@ -53412,7 +53429,7 @@
       <c r="D296" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E296" s="2" t="s">
+      <c r="E296" s="9" t="s">
         <v>1812</v>
       </c>
       <c r="F296" s="2">
@@ -53463,7 +53480,7 @@
       <c r="D297" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E297" s="2" t="s">
+      <c r="E297" s="9" t="s">
         <v>1814</v>
       </c>
       <c r="F297" s="2">
@@ -53514,7 +53531,7 @@
       <c r="D298" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E298" s="2" t="s">
+      <c r="E298" s="9" t="s">
         <v>1816</v>
       </c>
       <c r="F298" s="2">
@@ -53565,7 +53582,7 @@
       <c r="D299" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E299" s="2" t="s">
+      <c r="E299" s="9" t="s">
         <v>1818</v>
       </c>
       <c r="F299" s="2">
@@ -53616,7 +53633,7 @@
       <c r="D300" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E300" s="2" t="s">
+      <c r="E300" s="9" t="s">
         <v>1820</v>
       </c>
       <c r="F300" s="2">
@@ -53667,7 +53684,7 @@
       <c r="D301" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E301" s="2" t="s">
+      <c r="E301" s="9" t="s">
         <v>1822</v>
       </c>
       <c r="F301" s="2">
@@ -53718,7 +53735,7 @@
       <c r="D302" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E302" s="2" t="s">
+      <c r="E302" s="9" t="s">
         <v>1774</v>
       </c>
       <c r="F302" s="2">
@@ -53769,7 +53786,7 @@
       <c r="D303" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E303" s="2" t="s">
+      <c r="E303" s="9" t="s">
         <v>1800</v>
       </c>
       <c r="F303" s="2">
@@ -53820,7 +53837,7 @@
       <c r="D304" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E304" s="2" t="s">
+      <c r="E304" s="9" t="s">
         <v>1824</v>
       </c>
       <c r="F304" s="2">
